--- a/PackageConfig/PropPackConf.xlsx
+++ b/PackageConfig/PropPackConf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/PackageConfig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A7A251-440C-614E-9815-21C5E4A1D983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1346B-0D53-C64B-B72B-2CD985507A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1500" windowWidth="28100" windowHeight="17440" xr2:uid="{EAC3B0E0-975B-7B45-A755-DBA382A99E47}"/>
+    <workbookView xWindow="2240" yWindow="2060" windowWidth="28100" windowHeight="17440" xr2:uid="{EAC3B0E0-975B-7B45-A755-DBA382A99E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>prop_type</t>
+  </si>
+  <si>
+    <t>chest_type</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -194,20 +197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,6 +209,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,32 +565,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96FEAC6-93E8-F14B-B989-64DBFB9639B2}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1"/>
-    <col min="7" max="7" width="10.7109375" style="2"/>
-    <col min="8" max="8" width="10.7109375" style="1"/>
-    <col min="9" max="9" width="17.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="10.7109375" style="5"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="6" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="6"/>
-    <col min="19" max="19" width="19.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="7" customWidth="1"/>
-    <col min="21" max="23" width="10.7109375" style="7"/>
-    <col min="24" max="24" width="15.42578125" customWidth="1"/>
-    <col min="25" max="28" width="10.7109375" style="5"/>
+    <col min="7" max="8" width="10.7109375" style="2"/>
+    <col min="9" max="9" width="10.7109375" style="1"/>
+    <col min="10" max="10" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="5"/>
+    <col min="14" max="14" width="10.7109375" style="13"/>
+    <col min="15" max="15" width="10.7109375" style="5"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="6" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" style="6"/>
+    <col min="20" max="20" width="10.7109375" style="17"/>
+    <col min="21" max="21" width="10.7109375" style="6"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10" style="8" customWidth="1"/>
+    <col min="24" max="25" width="10.7109375" style="8"/>
+    <col min="26" max="26" width="10.7109375" style="21"/>
+    <col min="27" max="27" width="10.7109375" style="8"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="29" max="31" width="10.7109375" style="5"/>
+    <col min="32" max="32" width="10.7109375" style="13"/>
+    <col min="33" max="33" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:37">
       <c r="A1">
         <v>1</v>
       </c>
@@ -656,41 +698,58 @@
       <c r="AG1">
         <v>33</v>
       </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="E2" s="13" t="s">
+    <row r="2" spans="1:37">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="Q2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="W2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="Y2" s="12" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
+      <c r="AC2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="28"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -706,59 +765,74 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="T3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Z3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AD3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AE3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AF3" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="AG3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>100001</v>
       </c>
@@ -774,35 +848,44 @@
       <c r="G4" s="2">
         <v>29</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>64</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4</v>
       </c>
       <c r="M4" s="5">
         <v>4</v>
       </c>
-      <c r="O4" s="6">
+      <c r="N4" s="13">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="R4" s="6">
         <v>80</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="S4" s="6">
         <v>32</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>100002</v>
       </c>
@@ -818,11 +901,14 @@
       <c r="G5" s="2">
         <v>29</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>100003</v>
       </c>
@@ -838,11 +924,14 @@
       <c r="G6" s="2">
         <v>29</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>100004</v>
       </c>
@@ -858,18 +947,22 @@
       <c r="G7" s="2">
         <v>29</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>